--- a/data_year/zb/科技/高技术产业专利情况/高技术产业有效发明专利数.xlsx
+++ b/data_year/zb/科技/高技术产业专利情况/高技术产业有效发明专利数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,65 @@
         <v>570905</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14532</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>13798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>27409</v>
+      </c>
+      <c r="F12" t="n">
+        <v>26855</v>
+      </c>
+      <c r="G12" t="n">
+        <v>69403</v>
+      </c>
+      <c r="H12" t="n">
+        <v>64511</v>
+      </c>
+      <c r="I12" t="n">
+        <v>12938</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5607</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10274</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>490022</v>
+      </c>
+      <c r="N12" t="n">
+        <v>109763</v>
+      </c>
+      <c r="O12" t="n">
+        <v>39903</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7939</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14689</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>1937</v>
+      </c>
+      <c r="U12" t="n">
+        <v>685428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
